--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Itgav-Thy1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Itgav-Thy1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="H2">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="I2">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="J2">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.687165</v>
+        <v>2.078464666666667</v>
       </c>
       <c r="N2">
-        <v>11.061495</v>
+        <v>6.235394</v>
       </c>
       <c r="O2">
-        <v>0.02835531825299169</v>
+        <v>0.02232072443689449</v>
       </c>
       <c r="P2">
-        <v>0.03214637466498472</v>
+        <v>0.02315962369441786</v>
       </c>
       <c r="Q2">
-        <v>39.39446237142</v>
+        <v>28.88930509334712</v>
       </c>
       <c r="R2">
-        <v>354.55016134278</v>
+        <v>260.0037458401241</v>
       </c>
       <c r="S2">
-        <v>0.001334198814539178</v>
+        <v>0.00108333804645894</v>
       </c>
       <c r="T2">
-        <v>0.001572837534457595</v>
+        <v>0.001157813017688534</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="H3">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="I3">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="J3">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>235.337868</v>
       </c>
       <c r="O3">
-        <v>0.6032710898590606</v>
+        <v>0.8424346081729959</v>
       </c>
       <c r="P3">
-        <v>0.6839273784951058</v>
+        <v>0.8740965629319627</v>
       </c>
       <c r="Q3">
-        <v>838.1334336358882</v>
+        <v>1090.347693933992</v>
       </c>
       <c r="R3">
-        <v>7543.200902722992</v>
+        <v>9813.129245405929</v>
       </c>
       <c r="S3">
-        <v>0.02838563001671814</v>
+        <v>0.04088762733789267</v>
       </c>
       <c r="T3">
-        <v>0.03346276720005995</v>
+        <v>0.04369848114256548</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="H4">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="I4">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="J4">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.681161666666666</v>
+        <v>2.412811</v>
       </c>
       <c r="N4">
-        <v>5.043485</v>
+        <v>7.238433000000001</v>
       </c>
       <c r="O4">
-        <v>0.01292859801312479</v>
+        <v>0.0259112845712594</v>
       </c>
       <c r="P4">
-        <v>0.01465712893485288</v>
+        <v>0.02688513098246176</v>
       </c>
       <c r="Q4">
-        <v>17.96189213603778</v>
+        <v>33.53650135576867</v>
       </c>
       <c r="R4">
-        <v>161.65702922434</v>
+        <v>301.828512201918</v>
       </c>
       <c r="S4">
-        <v>0.0006083275098118405</v>
+        <v>0.001257606153780166</v>
       </c>
       <c r="T4">
-        <v>0.00071713475551667</v>
+        <v>0.001344061330377242</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="H5">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="I5">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="J5">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>46.005266</v>
+        <v>10.1189145</v>
       </c>
       <c r="N5">
-        <v>92.010532</v>
+        <v>20.237829</v>
       </c>
       <c r="O5">
-        <v>0.3537932147716574</v>
+        <v>0.1086674725710978</v>
       </c>
       <c r="P5">
-        <v>0.2673964988273796</v>
+        <v>0.0751677446576715</v>
       </c>
       <c r="Q5">
-        <v>491.5301377411014</v>
+        <v>140.646320763689</v>
       </c>
       <c r="R5">
-        <v>2949.180826446608</v>
+        <v>843.8779245821341</v>
       </c>
       <c r="S5">
-        <v>0.01664698253529732</v>
+        <v>0.005274183989038245</v>
       </c>
       <c r="T5">
-        <v>0.01308300716087759</v>
+        <v>0.00375784142364613</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="H6">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="I6">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="J6">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.214788</v>
+        <v>0.06200833333333333</v>
       </c>
       <c r="N6">
-        <v>0.644364</v>
+        <v>0.186025</v>
       </c>
       <c r="O6">
-        <v>0.001651779103165597</v>
+        <v>0.0006659102477523147</v>
       </c>
       <c r="P6">
-        <v>0.001872619077676952</v>
+        <v>0.0006909377334863013</v>
       </c>
       <c r="Q6">
-        <v>2.294841099824</v>
+        <v>0.8618754452388889</v>
       </c>
       <c r="R6">
-        <v>20.653569898416</v>
+        <v>7.756879007150001</v>
       </c>
       <c r="S6">
-        <v>7.772093057328353E-05</v>
+        <v>3.232000417175311E-05</v>
       </c>
       <c r="T6">
-        <v>9.162232456401547E-05</v>
+        <v>3.4541869626123E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>211.087055</v>
       </c>
       <c r="I7">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="J7">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.687165</v>
+        <v>2.078464666666667</v>
       </c>
       <c r="N7">
-        <v>11.061495</v>
+        <v>6.235394</v>
       </c>
       <c r="O7">
-        <v>0.02835531825299169</v>
+        <v>0.02232072443689449</v>
       </c>
       <c r="P7">
-        <v>0.03214637466498472</v>
+        <v>0.02315962369441786</v>
       </c>
       <c r="Q7">
-        <v>259.437600383025</v>
+        <v>146.2456618027411</v>
       </c>
       <c r="R7">
-        <v>2334.938403447225</v>
+        <v>1316.21095622467</v>
       </c>
       <c r="S7">
-        <v>0.008786548109590155</v>
+        <v>0.005484157166416643</v>
       </c>
       <c r="T7">
-        <v>0.01035813591983597</v>
+        <v>0.005861170092827266</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>211.087055</v>
       </c>
       <c r="I8">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="J8">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>235.337868</v>
       </c>
       <c r="O8">
-        <v>0.6032710898590606</v>
+        <v>0.8424346081729959</v>
       </c>
       <c r="P8">
-        <v>0.6839273784951058</v>
+        <v>0.8740965629319627</v>
       </c>
       <c r="Q8">
         <v>5519.641942899861</v>
@@ -948,10 +948,10 @@
         <v>49676.77748609874</v>
       </c>
       <c r="S8">
-        <v>0.1869374346948923</v>
+        <v>0.2069844913282808</v>
       </c>
       <c r="T8">
-        <v>0.2203736134969475</v>
+        <v>0.2212138116101935</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>211.087055</v>
       </c>
       <c r="I9">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="J9">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.681161666666666</v>
+        <v>2.412811</v>
       </c>
       <c r="N9">
-        <v>5.043485</v>
+        <v>7.238433000000001</v>
       </c>
       <c r="O9">
-        <v>0.01292859801312479</v>
+        <v>0.0259112845712594</v>
       </c>
       <c r="P9">
-        <v>0.01465712893485288</v>
+        <v>0.02688513098246176</v>
       </c>
       <c r="Q9">
-        <v>118.2904883985194</v>
+        <v>169.7710560872017</v>
       </c>
       <c r="R9">
-        <v>1064.614395586675</v>
+        <v>1527.939504784815</v>
       </c>
       <c r="S9">
-        <v>0.004006223715012871</v>
+        <v>0.006366350580344518</v>
       </c>
       <c r="T9">
-        <v>0.00472278865918702</v>
+        <v>0.006804010623632434</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>211.087055</v>
       </c>
       <c r="I10">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="J10">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.005266</v>
+        <v>10.1189145</v>
       </c>
       <c r="N10">
-        <v>92.010532</v>
+        <v>20.237829</v>
       </c>
       <c r="O10">
-        <v>0.3537932147716574</v>
+        <v>0.1086674725710978</v>
       </c>
       <c r="P10">
-        <v>0.2673964988273796</v>
+        <v>0.0751677446576715</v>
       </c>
       <c r="Q10">
-        <v>3237.038704810544</v>
+        <v>711.9906205339325</v>
       </c>
       <c r="R10">
-        <v>19422.23222886326</v>
+        <v>4271.943723203595</v>
       </c>
       <c r="S10">
-        <v>0.1096309720350167</v>
+        <v>0.02669937976888018</v>
       </c>
       <c r="T10">
-        <v>0.08615992653004109</v>
+        <v>0.01902323382909762</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>211.087055</v>
       </c>
       <c r="I11">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="J11">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.214788</v>
+        <v>0.06200833333333333</v>
       </c>
       <c r="N11">
-        <v>0.644364</v>
+        <v>0.186025</v>
       </c>
       <c r="O11">
-        <v>0.001651779103165597</v>
+        <v>0.0006659102477523147</v>
       </c>
       <c r="P11">
-        <v>0.001872619077676952</v>
+        <v>0.0006909377334863013</v>
       </c>
       <c r="Q11">
-        <v>15.11298878978</v>
+        <v>4.363052156263889</v>
       </c>
       <c r="R11">
-        <v>136.01689910802</v>
+        <v>39.267469406375</v>
       </c>
       <c r="S11">
-        <v>0.0005118417796227319</v>
+        <v>0.000163612810494839</v>
       </c>
       <c r="T11">
-        <v>0.0006033913041455234</v>
+        <v>0.0001748605086572223</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="H12">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="I12">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="J12">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.687165</v>
+        <v>2.078464666666667</v>
       </c>
       <c r="N12">
-        <v>11.061495</v>
+        <v>6.235394</v>
       </c>
       <c r="O12">
-        <v>0.02835531825299169</v>
+        <v>0.02232072443689449</v>
       </c>
       <c r="P12">
-        <v>0.03214637466498472</v>
+        <v>0.02315962369441786</v>
       </c>
       <c r="Q12">
-        <v>217.87854232332</v>
+        <v>170.4500340983367</v>
       </c>
       <c r="R12">
-        <v>1960.90688090988</v>
+        <v>1534.05030688503</v>
       </c>
       <c r="S12">
-        <v>0.007379039473634003</v>
+        <v>0.006391811999710433</v>
       </c>
       <c r="T12">
-        <v>0.00869887615391445</v>
+        <v>0.00683122240935993</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="H13">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="I13">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="J13">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>235.337868</v>
       </c>
       <c r="O13">
-        <v>0.6032710898590606</v>
+        <v>0.8424346081729959</v>
       </c>
       <c r="P13">
-        <v>0.6839273784951058</v>
+        <v>0.8740965629319627</v>
       </c>
       <c r="Q13">
-        <v>4635.455843294048</v>
+        <v>6433.169680252741</v>
       </c>
       <c r="R13">
-        <v>41719.10258964643</v>
+        <v>57898.52712227467</v>
       </c>
       <c r="S13">
-        <v>0.1569921079937991</v>
+        <v>0.2412414369755416</v>
       </c>
       <c r="T13">
-        <v>0.18507217768107</v>
+        <v>0.2578257793577421</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="H14">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="I14">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="J14">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.681161666666666</v>
+        <v>2.412811</v>
       </c>
       <c r="N14">
-        <v>5.043485</v>
+        <v>7.238433000000001</v>
       </c>
       <c r="O14">
-        <v>0.01292859801312479</v>
+        <v>0.0259112845712594</v>
       </c>
       <c r="P14">
-        <v>0.01465712893485288</v>
+        <v>0.02688513098246176</v>
       </c>
       <c r="Q14">
-        <v>99.34164957173776</v>
+        <v>197.868996196315</v>
       </c>
       <c r="R14">
-        <v>894.0748461456399</v>
+        <v>1780.820965766835</v>
       </c>
       <c r="S14">
-        <v>0.003364470616284778</v>
+        <v>0.007420012738328963</v>
       </c>
       <c r="T14">
-        <v>0.003966249715714307</v>
+        <v>0.007930107659315582</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="H15">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="I15">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="J15">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>46.005266</v>
+        <v>10.1189145</v>
       </c>
       <c r="N15">
-        <v>92.010532</v>
+        <v>20.237829</v>
       </c>
       <c r="O15">
-        <v>0.3537932147716574</v>
+        <v>0.1086674725710978</v>
       </c>
       <c r="P15">
-        <v>0.2673964988273796</v>
+        <v>0.0751677446576715</v>
       </c>
       <c r="Q15">
-        <v>2718.500608265861</v>
+        <v>829.8285504796426</v>
       </c>
       <c r="R15">
-        <v>16311.00364959517</v>
+        <v>4978.971302877855</v>
       </c>
       <c r="S15">
-        <v>0.09206929275175706</v>
+        <v>0.03111825770359206</v>
       </c>
       <c r="T15">
-        <v>0.07235805130534187</v>
+        <v>0.02217167206781067</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="H16">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="I16">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="J16">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.214788</v>
+        <v>0.06200833333333333</v>
       </c>
       <c r="N16">
-        <v>0.644364</v>
+        <v>0.186025</v>
       </c>
       <c r="O16">
-        <v>0.001651779103165597</v>
+        <v>0.0006659102477523147</v>
       </c>
       <c r="P16">
-        <v>0.001872619077676952</v>
+        <v>0.0006909377334863013</v>
       </c>
       <c r="Q16">
-        <v>12.692053745504</v>
+        <v>5.085158627208333</v>
       </c>
       <c r="R16">
-        <v>114.228483709536</v>
+        <v>45.766427644875</v>
       </c>
       <c r="S16">
-        <v>0.0004298503404276457</v>
+        <v>0.0001906915308392915</v>
       </c>
       <c r="T16">
-        <v>0.0005067346352406191</v>
+        <v>0.0002038007780584805</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="H17">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="I17">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="J17">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.687165</v>
+        <v>2.078464666666667</v>
       </c>
       <c r="N17">
-        <v>11.061495</v>
+        <v>6.235394</v>
       </c>
       <c r="O17">
-        <v>0.02835531825299169</v>
+        <v>0.02232072443689449</v>
       </c>
       <c r="P17">
-        <v>0.03214637466498472</v>
+        <v>0.02315962369441786</v>
       </c>
       <c r="Q17">
-        <v>96.2290314491175</v>
+        <v>52.06584439507367</v>
       </c>
       <c r="R17">
-        <v>577.3741886947049</v>
+        <v>312.395066370442</v>
       </c>
       <c r="S17">
-        <v>0.003259053479983765</v>
+        <v>0.001952449530092148</v>
       </c>
       <c r="T17">
-        <v>0.002561318240462076</v>
+        <v>0.001391114860044275</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="H18">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="I18">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="J18">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>235.337868</v>
       </c>
       <c r="O18">
-        <v>0.6032710898590606</v>
+        <v>0.8424346081729959</v>
       </c>
       <c r="P18">
-        <v>0.6839273784951058</v>
+        <v>0.8740965629319627</v>
       </c>
       <c r="Q18">
-        <v>2047.312329928302</v>
+        <v>1965.082690132554</v>
       </c>
       <c r="R18">
-        <v>12283.87397956981</v>
+        <v>11790.49614079533</v>
       </c>
       <c r="S18">
-        <v>0.06933770685403373</v>
+        <v>0.07368985982112566</v>
       </c>
       <c r="T18">
-        <v>0.05449310187997702</v>
+        <v>0.05250382017654989</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="H19">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="I19">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="J19">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>1.681161666666666</v>
+        <v>2.412811</v>
       </c>
       <c r="N19">
-        <v>5.043485</v>
+        <v>7.238433000000001</v>
       </c>
       <c r="O19">
-        <v>0.01292859801312479</v>
+        <v>0.0259112845712594</v>
       </c>
       <c r="P19">
-        <v>0.01465712893485288</v>
+        <v>0.02688513098246176</v>
       </c>
       <c r="Q19">
-        <v>43.87559517751916</v>
+        <v>60.4412690268115</v>
       </c>
       <c r="R19">
-        <v>263.253571065115</v>
+        <v>362.647614160869</v>
       </c>
       <c r="S19">
-        <v>0.001485964360196874</v>
+        <v>0.00226652479529818</v>
       </c>
       <c r="T19">
-        <v>0.001167832207671465</v>
+        <v>0.001614892612998451</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="H20">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="I20">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="J20">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>46.005266</v>
+        <v>10.1189145</v>
       </c>
       <c r="N20">
-        <v>92.010532</v>
+        <v>20.237829</v>
       </c>
       <c r="O20">
-        <v>0.3537932147716574</v>
+        <v>0.1086674725710978</v>
       </c>
       <c r="P20">
-        <v>0.2673964988273796</v>
+        <v>0.0751677446576715</v>
       </c>
       <c r="Q20">
-        <v>1200.662891066447</v>
+        <v>253.4802906459743</v>
       </c>
       <c r="R20">
-        <v>4802.651564265788</v>
+        <v>1013.921162583897</v>
       </c>
       <c r="S20">
-        <v>0.04066365954734295</v>
+        <v>0.009505415308431653</v>
       </c>
       <c r="T20">
-        <v>0.02130528051824998</v>
+        <v>0.004515054647217958</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="H21">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="I21">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="J21">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.214788</v>
+        <v>0.06200833333333333</v>
       </c>
       <c r="N21">
-        <v>0.644364</v>
+        <v>0.186025</v>
       </c>
       <c r="O21">
-        <v>0.001651779103165597</v>
+        <v>0.0006659102477523147</v>
       </c>
       <c r="P21">
-        <v>0.001872619077676952</v>
+        <v>0.0006909377334863013</v>
       </c>
       <c r="Q21">
-        <v>5.605618736046</v>
+        <v>1.553317834220833</v>
       </c>
       <c r="R21">
-        <v>33.633712416276</v>
+        <v>9.319907005325</v>
       </c>
       <c r="S21">
-        <v>0.0001898492687088191</v>
+        <v>5.824883300644543E-05</v>
       </c>
       <c r="T21">
-        <v>0.0001492041777984897</v>
+        <v>4.150213151562456E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="H22">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="I22">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="J22">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.687165</v>
+        <v>2.078464666666667</v>
       </c>
       <c r="N22">
-        <v>11.061495</v>
+        <v>6.235394</v>
       </c>
       <c r="O22">
-        <v>0.02835531825299169</v>
+        <v>0.02232072443689449</v>
       </c>
       <c r="P22">
-        <v>0.03214637466498472</v>
+        <v>0.02315962369441786</v>
       </c>
       <c r="Q22">
-        <v>224.29879134036</v>
+        <v>197.5744587246711</v>
       </c>
       <c r="R22">
-        <v>2018.68912206324</v>
+        <v>1778.17012852204</v>
       </c>
       <c r="S22">
-        <v>0.007596478375244589</v>
+        <v>0.00740896769421632</v>
       </c>
       <c r="T22">
-        <v>0.008955206816314629</v>
+        <v>0.007918303314497858</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="H23">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="I23">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="J23">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>235.337868</v>
       </c>
       <c r="O23">
-        <v>0.6032710898590606</v>
+        <v>0.8424346081729959</v>
       </c>
       <c r="P23">
-        <v>0.6839273784951058</v>
+        <v>0.8740965629319627</v>
       </c>
       <c r="Q23">
-        <v>4772.049288908705</v>
+        <v>7456.906794906322</v>
       </c>
       <c r="R23">
-        <v>42948.44360017835</v>
+        <v>67112.1611541569</v>
       </c>
       <c r="S23">
-        <v>0.1616182102996173</v>
+        <v>0.2796311927101551</v>
       </c>
       <c r="T23">
-        <v>0.1905257182370514</v>
+        <v>0.2988546706449118</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="H24">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="I24">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="J24">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>1.681161666666666</v>
+        <v>2.412811</v>
       </c>
       <c r="N24">
-        <v>5.043485</v>
+        <v>7.238433000000001</v>
       </c>
       <c r="O24">
-        <v>0.01292859801312479</v>
+        <v>0.0259112845712594</v>
       </c>
       <c r="P24">
-        <v>0.01465712893485288</v>
+        <v>0.02688513098246176</v>
       </c>
       <c r="Q24">
-        <v>102.2689599953022</v>
+        <v>229.3567145860867</v>
       </c>
       <c r="R24">
-        <v>920.42063995772</v>
+        <v>2064.210431274781</v>
       </c>
       <c r="S24">
-        <v>0.003463611811818426</v>
+        <v>0.008600790303507575</v>
       </c>
       <c r="T24">
-        <v>0.004083123596763421</v>
+        <v>0.009192058756138051</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="H25">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="I25">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="J25">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>46.005266</v>
+        <v>10.1189145</v>
       </c>
       <c r="N25">
-        <v>92.010532</v>
+        <v>20.237829</v>
       </c>
       <c r="O25">
-        <v>0.3537932147716574</v>
+        <v>0.1086674725710978</v>
       </c>
       <c r="P25">
-        <v>0.2673964988273796</v>
+        <v>0.0751677446576715</v>
       </c>
       <c r="Q25">
-        <v>2798.606940316411</v>
+        <v>961.8826277306902</v>
       </c>
       <c r="R25">
-        <v>16791.64164189847</v>
+        <v>5771.295766384142</v>
       </c>
       <c r="S25">
-        <v>0.09478230790224336</v>
+        <v>0.03607023580115568</v>
       </c>
       <c r="T25">
-        <v>0.07449023331286914</v>
+        <v>0.02569994268989912</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="H26">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="I26">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="J26">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.214788</v>
+        <v>0.06200833333333333</v>
       </c>
       <c r="N26">
-        <v>0.644364</v>
+        <v>0.186025</v>
       </c>
       <c r="O26">
-        <v>0.001651779103165597</v>
+        <v>0.0006659102477523147</v>
       </c>
       <c r="P26">
-        <v>0.001872619077676952</v>
+        <v>0.0006909377334863013</v>
       </c>
       <c r="Q26">
-        <v>13.066051775392</v>
+        <v>5.894381122388889</v>
       </c>
       <c r="R26">
-        <v>117.594465978528</v>
+        <v>53.04943010150001</v>
       </c>
       <c r="S26">
-        <v>0.000442516783833117</v>
+        <v>0.0002210370692399856</v>
       </c>
       <c r="T26">
-        <v>0.0005216666359283045</v>
+        <v>0.000236232445628851</v>
       </c>
     </row>
   </sheetData>
